--- a/RTM_Sathya.in.xlsx
+++ b/RTM_Sathya.in.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -135,7 +135,399 @@
 Screen shot 2: LOGIN PAGE </t>
   </si>
   <si>
-    <t>SA_WM_2.0
+    <t>Washing Machine</t>
+  </si>
+  <si>
+    <t>Screen shot 2: Wahing machine</t>
+  </si>
+  <si>
+    <t>Screen shot 2: REFRIDGERATOR</t>
+  </si>
+  <si>
+    <t>Refridgerator</t>
+  </si>
+  <si>
+    <t>Refridgerator Page,
+ Refridgerator Time Sheet.</t>
+  </si>
+  <si>
+    <t>Water purifier</t>
+  </si>
+  <si>
+    <t>Screen shot 2: Water purifier</t>
+  </si>
+  <si>
+    <t>Washing machine page, washing machine time sheet.</t>
+  </si>
+  <si>
+    <t>Screen shot 2:Kitchen applaince</t>
+  </si>
+  <si>
+    <t>Kitchen applaince</t>
+  </si>
+  <si>
+    <t>Air conditioners</t>
+  </si>
+  <si>
+    <t>Screen shot 2: Air conditioners</t>
+  </si>
+  <si>
+    <t>Water purifier page, Water purifier time sheet.</t>
+  </si>
+  <si>
+    <t>Kitchen applaince page, Kitchen applaince time sheet.</t>
+  </si>
+  <si>
+    <t>SA_S_3.0
+SA_S_3.1
+SA_S_3.2
+SA_S_3.3
+SA_S_3.4
+SA_S_3.5
+SA_S_3.6
+SA_S_3.7
+SA_S_3.8
+SA_S_3.9
+SA_S_3.10
+SA_S_3.11
+SA_S_3.12
+SA_S_3.13
+SA_S_3.14
+SA_S_3.15
+SA_S_3.16
+SA_S_3.17
+SA_S_3.18
+SA_S_3.19
+SA_S_3.20
+SA_S_3.21
+SA_S_3.22
+SA_S_3.23
+SA_S_3.24
+SA_S_3.25
+SA_S_3.26
+SA_S_3.27
+SA_S_3.28
+SA_S_3.29
+SA_S_3.30</t>
+  </si>
+  <si>
+    <t>Stabilizer</t>
+  </si>
+  <si>
+    <t>Screen shot 2: Stabilizer</t>
+  </si>
+  <si>
+    <t>Stabilizer page, Stabilizer time sheet.</t>
+  </si>
+  <si>
+    <t>Screen shot 2: Led</t>
+  </si>
+  <si>
+    <t>Led page, Led time sheet.</t>
+  </si>
+  <si>
+    <t>Screen shot 2:Home Theater</t>
+  </si>
+  <si>
+    <t>Home Theater</t>
+  </si>
+  <si>
+    <t>Home Theater page, Home Theater time sheet.</t>
+  </si>
+  <si>
+    <t>Screen shot 2:CCTV Camera</t>
+  </si>
+  <si>
+    <t>CCTV Camera</t>
+  </si>
+  <si>
+    <t>CCTV Camera page, CCTV Camera time sheet.</t>
+  </si>
+  <si>
+    <t>Home &amp; Login</t>
+  </si>
+  <si>
+    <t>Testing  Home,Login, Water Purifier,Air Conditioners,Kitchen Appliances,Stabilizer,Home theature,LED TVs,CCTV Camera,Refrigerator and Washing Machine.</t>
+  </si>
+  <si>
+    <t>SATHYA BRS.</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Air conditioners page, Air conditioners time sheet.</t>
+  </si>
+  <si>
+    <t>SA_HM_1.0
+SA_HM_2.0
+SA_HM_2.1
+SA_HM_2.2
+SA_HM_2.3
+SA_HM_3.0
+SA_L_1.0
+SA_L_2.0
+SA_L_3.0
+SA_L_4.0
+SA_L_4.1</t>
+  </si>
+  <si>
+    <t>LED TV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SA_AC_1.0
+SA_AC_1.1
+SA_AC_1.2
+SA_AC_1.3
+SA_AC_1.5
+SA_AC_1.6
+SA_AC_1.7
+SA_AC_1.8
+SA_AC_1.9
+SA_AC_1.10
+SA_AC_1.11
+SA_AC_1.12
+SA_AC_1.13
+SA_AC_1.14
+SA_AC_1.15
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SA_AC_1.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SA_AC_1.17
+SA_AC_1.18
+SA_AC_1.19
+SA_AC_1.20
+SA_AC_1.21
+SA_AC_2.0
+SA_AC_2.1
+SA_AC_3.0
+SA_AC_3.1
+SA_AC_4.0
+SA_AC_4.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note : Failed Test Case IDs are written in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RED</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SA_RF_1.0
+SA_RF_1.1
+SA_RF_1.2
+SA_RF_1.3
+SA_RF_1.4
+SA_RF_1.5
+SA_RF_1.6
+SA_RF_1.7
+SA_RF_1.8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SA_RF_1.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SA_RF_2.0
+SA_RF_2.1
+SA_RF_2.2
+SA_RF_2.3
+SA_RF_2.4
+SA_RF_2.5
+SA_RF_2.6
+SA_RF_2.7
+SA_RF_2.8
+SA_RF_2.9
+SA_RF_2.10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SA_RF_2.11
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SA_RF_3.0
+SA_RF_3.1
+SA_RF_3.2
+SA_RF_3.3
+SA_RF_3.4
+SA_RF_3.5
+SA_RF_3.6
+SA_RF_3.7
+SA_RF_3.8
+SA_RF_3.9
+SA_RF_3.10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SA_RF_3.11
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SA_RF_4.0
+SA_RF_4.1
+SA_RF_4.2
+SA_RF_4.3
+SA_RF_4.4
+SA_RF_4.5
+SA_RF_4.6
+SA_RF_4.7
+SA_RF_4.8
+SA_RF_4.9
+SA_RF_4.10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SA_RF_4.11
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SA_RF_5.0
+SA_RF_5.1
+SA_RF_5.2
+SA_RF_5.3
+SA_RF_5.4
+SA_RF_5.5
+SA_RF_5.6
+SA_RF_5.7
+SA_RF_5.8
+SA_RF_5.9
+SA_RF_5.10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SA_RF_5.11
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SA_RF_6.0
+SA_RF_6.1
+SA_RF_6.2
+SA_RF_6.3
+SA_RF_6.4
+SA_RF_6.5
+SA_RF_6.6
+SA_RF_6.7
+SA_RF_6.8
+SA_RF_6.9
+SA_RF_6.10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SA_RF_6.11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SA_WM_2.0
 SA_WM_2.1
 SA_WM_2.2
 SA_WM_2.3
@@ -150,27 +542,23 @@
 SA_WM_4.2
 SA_WM_4.3
 Sl_MN_4.4
-Sl_MN_4.5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sl_MN_4.5
 Sl_MN_4.6</t>
-  </si>
-  <si>
-    <t>Washing Machine</t>
-  </si>
-  <si>
-    <t>Screen shot 2: Wahing machine</t>
-  </si>
-  <si>
-    <t>Screen shot 2: REFRIDGERATOR</t>
-  </si>
-  <si>
-    <t>Refridgerator</t>
-  </si>
-  <si>
-    <t>Refridgerator Page,
- Refridgerator Time Sheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 
 SA_WP_2.0
 SA_WP_2.1
 SA_WP_2.2
@@ -179,7 +567,27 @@
 SA_WP_2.5
 SA_WP_2.6
 SA_WP_2.7
-SA_WP_2.8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SA_WP_2.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 SA_WP_2.9
 SA_WP_2.10
 SA_WP_2.11
@@ -225,18 +633,11 @@
 SA_WP_2.51
 SA_WP_2.52
 </t>
-  </si>
-  <si>
-    <t>Water purifier</t>
-  </si>
-  <si>
-    <t>Screen shot 2: Water purifier</t>
-  </si>
-  <si>
-    <t>Washing machine page, washing machine time sheet.</t>
-  </si>
-  <si>
-    <t>SA_KA_1.0
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SA_KA_1.0
 SA_KA_1.1
 SA_KA_2.1
 SA_KA_2.2
@@ -262,107 +663,69 @@
 SA_KA_6.3
 SA_KA_7.1
 SA_KA_7.2
-SA_KA_7.3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SA_KA_7.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 SA_KA_7.4
-SA_KA_8.1</t>
-  </si>
-  <si>
-    <t>Screen shot 2:Kitchen applaince</t>
-  </si>
-  <si>
-    <t>Kitchen applaince</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SA_AC_1.0
-SA_AC_1.1
-SA_AC_1.2
-SA_AC_1.3
-SA_AC_1.5
-SA_AC_1.6
-SA_AC_1.7
-SA_AC_1.8
-SA_AC_1.9
-SA_AC_1.10
-SA_AC_1.11
-SA_AC_1.12
-SA_AC_1.13
-SA_AC_1.14
-SA_AC_1.15
-SA_AC_1.16
-SA_AC_1.17
-SA_AC_1.18
-SA_AC_1.19
-SA_AC_1.20
-SA_AC_1.21
-SA_AC_2.0
-SA_AC_2.1
-SA_AC_3.0
-SA_AC_3.1
-SA_AC_4.0
-SA_AC_4.1</t>
-  </si>
-  <si>
-    <t>Air conditioners</t>
-  </si>
-  <si>
-    <t>Screen shot 2: Air conditioners</t>
-  </si>
-  <si>
-    <t>Water purifier page, Water purifier time sheet.</t>
-  </si>
-  <si>
-    <t>Kitchen applaince page, Kitchen applaince time sheet.</t>
-  </si>
-  <si>
-    <t>SA_S_3.0
-SA_S_3.1
-SA_S_3.2
-SA_S_3.3
-SA_S_3.4
-SA_S_3.5
-SA_S_3.6
-SA_S_3.7
-SA_S_3.8
-SA_S_3.9
-SA_S_3.10
-SA_S_3.11
-SA_S_3.12
-SA_S_3.13
-SA_S_3.14
-SA_S_3.15
-SA_S_3.16
-SA_S_3.17
-SA_S_3.18
-SA_S_3.19
-SA_S_3.20
-SA_S_3.21
-SA_S_3.22
-SA_S_3.23
-SA_S_3.24
-SA_S_3.25
-SA_S_3.26
-SA_S_3.27
-SA_S_3.28
-SA_S_3.29
-SA_S_3.30</t>
-  </si>
-  <si>
-    <t>Stabilizer</t>
-  </si>
-  <si>
-    <t>Screen shot 2: Stabilizer</t>
-  </si>
-  <si>
-    <t>Stabilizer page, Stabilizer time sheet.</t>
-  </si>
-  <si>
-    <t>SA_AV_1.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SA_KA_8.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SA_AV_1.0
 SA_AV_1.1
 SA_AV_1.2
 SA_AV_1.3
 SA_AV_1.4
-SA_AV_1.5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SA_AV_1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 SA_AV_2.0
 SA_AV_2.1
 SA_AV_2.2
@@ -377,15 +740,11 @@
 SA_AV_4.1
 SA_AV_4.2
 SA_AV_4.3</t>
-  </si>
-  <si>
-    <t>Screen shot 2: Led</t>
-  </si>
-  <si>
-    <t>Led page, Led time sheet.</t>
-  </si>
-  <si>
-    <t>SA_HT_2.0
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SA_HT_2.0
 SA_HT_2.1
 SA_HT_2.2
 SA_HT_2.3
@@ -400,21 +759,24 @@
 SA_HT_2.12
 SA_HT_2.13
 SA_HT_2.14
-SA_HT_2.15
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SA_HT_2.15
 SA_HT_2.16
 SA_HT_2.17</t>
-  </si>
-  <si>
-    <t>Screen shot 2:Home Theater</t>
-  </si>
-  <si>
-    <t>Home Theater</t>
-  </si>
-  <si>
-    <t>Home Theater page, Home Theater time sheet.</t>
-  </si>
-  <si>
-    <t>S_CC_3.0
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S_CC_3.0
 S_CC_3.1
 S_CC_3.2
 S_CC_3.3
@@ -431,120 +793,29 @@
 S_CC_3.14
 S_CC_3.15
 S_CC_3.16
-S_CC_3.17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S_CC_3.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 S_CC_3.18</t>
-  </si>
-  <si>
-    <t>Screen shot 2:CCTV Camera</t>
-  </si>
-  <si>
-    <t>CCTV Camera</t>
-  </si>
-  <si>
-    <t>CCTV Camera page, CCTV Camera time sheet.</t>
-  </si>
-  <si>
-    <t>Home &amp; Login</t>
-  </si>
-  <si>
-    <t>Testing  Home,Login, Water Purifier,Air Conditioners,Kitchen Appliances,Stabilizer,Home theature,LED TVs,CCTV Camera,Refrigerator and Washing Machine.</t>
-  </si>
-  <si>
-    <t>SATHYA BRS.</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Air conditioners page, Air conditioners time sheet.</t>
-  </si>
-  <si>
-    <t>SA_HM_1.0
-SA_HM_2.0
-SA_HM_2.1
-SA_HM_2.2
-SA_HM_2.3
-SA_HM_3.0
-SA_L_1.0
-SA_L_2.0
-SA_L_3.0
-SA_L_4.0
-SA_L_4.1</t>
-  </si>
-  <si>
-    <t>SA_RF_1.0
-SA_RF_1.1
-SA_RF_1.2
-SA_RF_1.3
-SA_RF_1.4
-SA_RF_1.5
-SA_RF_1.6
-SA_RF_1.7
-SA_RF_1.8
-SA_RF_1.9
-SA_RF_2.0
-SA_RF_2.1
-SA_RF_2.2
-SA_RF_2.3
-SA_RF_2.4
-SA_RF_2.5
-SA_RF_2.6
-SA_RF_2.7
-SA_RF_2.8
-SA_RF_2.9
-SA_RF_2.10
-SA_RF_2.11
-SA_RF_3.0
-SA_RF_3.1
-SA_RF_3.2
-SA_RF_3.3
-SA_RF_3.4
-SA_RF_3.5
-SA_RF_3.6
-SA_RF_3.7
-SA_RF_3.8
-SA_RF_3.9
-SA_RF_3.10
-SA_RF_3.11
-SA_RF_4.0
-SA_RF_4.1
-SA_RF_4.2
-SA_RF_4.3
-SA_RF_4.4
-SA_RF_4.5
-SA_RF_4.6
-SA_RF_4.7
-SA_RF_4.8
-SA_RF_4.9
-SA_RF_4.10
-SA_RF_4.11
-SA_RF_5.0
-SA_RF_5.1
-SA_RF_5.2
-SA_RF_5.3
-SA_RF_5.4
-SA_RF_5.5
-SA_RF_5.6
-SA_RF_5.7
-SA_RF_5.8
-SA_RF_5.9
-SA_RF_5.10
-SA_RF_5.11
-SA_RF_6.0
-SA_RF_6.1
-SA_RF_6.2
-SA_RF_6.3
-SA_RF_6.4
-SA_RF_6.5
-SA_RF_6.6
-SA_RF_6.7
-SA_RF_6.8
-SA_RF_6.9
-SA_RF_6.10
-SA_RF_6.11</t>
-  </si>
-  <si>
-    <t>LED TV</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -556,7 +827,7 @@
     <numFmt numFmtId="165" formatCode="000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +901,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -828,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -886,6 +1164,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,35 +1248,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1281,16 +1565,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="25" customWidth="1"/>
     <col min="3" max="6" width="18.28515625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="28" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="20" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="11" width="18.28515625" style="20" customWidth="1"/>
@@ -1298,103 +1582,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="22.5">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1409,7 +1693,7 @@
       <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="15" t="s">
@@ -1435,19 +1719,19 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>19</v>
@@ -1468,32 +1752,32 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>39</v>
+      <c r="B8" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="3">
+        <v>58</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3">
         <v>64</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>13</v>
       </c>
       <c r="M8" s="1"/>
     </row>
@@ -1501,29 +1785,29 @@
       <c r="A9" s="19">
         <v>3</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>38</v>
+      <c r="B9" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>45</v>
+      <c r="G9" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="3">
         <v>18</v>
@@ -1534,26 +1818,26 @@
       <c r="A10" s="19">
         <v>4</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>51</v>
+      <c r="B10" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="3">
         <v>1</v>
@@ -1567,22 +1851,22 @@
       <c r="A11" s="19">
         <v>5</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>44</v>
+      <c r="B11" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="3">
@@ -1600,201 +1884,214 @@
       <c r="A12" s="19">
         <v>6</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>72</v>
+      <c r="B12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="48">
+      <c r="J12" s="30">
+        <v>27</v>
+      </c>
+      <c r="K12" s="30">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
         <v>29</v>
       </c>
-      <c r="K12" s="48">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="409.5">
       <c r="A13" s="19">
         <v>7</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>56</v>
+      <c r="B13" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="48">
+      <c r="J13" s="30">
         <v>31</v>
       </c>
-      <c r="K13" s="48">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3"/>
+      <c r="K13" s="30">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>31</v>
+      </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="300">
       <c r="A14" s="3"/>
-      <c r="B14" s="42" t="s">
-        <v>59</v>
+      <c r="B14" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="48">
+      <c r="J14" s="30">
         <v>20</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="30">
         <v>1</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>21</v>
+      </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="270">
       <c r="A15" s="19">
         <v>8</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>62</v>
+      <c r="B15" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="48">
+      <c r="J15" s="30">
+        <v>15</v>
+      </c>
+      <c r="K15" s="30">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>18</v>
       </c>
-      <c r="K15" s="48">
-        <v>2</v>
-      </c>
-      <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="285">
       <c r="A16" s="19">
         <v>9</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>66</v>
+      <c r="B16" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="48">
+      <c r="J16" s="30">
+        <v>18</v>
+      </c>
+      <c r="K16" s="30">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
         <v>19</v>
       </c>
-      <c r="K16" s="48">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="11:13">
+    <row r="17" spans="1:13">
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="11:13">
+    <row r="18" spans="1:13" ht="45">
+      <c r="A18" s="49" t="s">
+        <v>70</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="11:13">
+    <row r="19" spans="1:13">
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="11:13">
+    <row r="20" spans="1:13">
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="11:13">
+    <row r="21" spans="1:13">
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="11:13">
+    <row r="22" spans="1:13">
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="11:13">
+    <row r="23" spans="1:13">
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="11:13">
+    <row r="24" spans="1:13">
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="11:13">
+    <row r="25" spans="1:13">
       <c r="K25" s="11"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="11:13">
+    <row r="26" spans="1:13">
       <c r="K26" s="11"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
